--- a/objetivos_e_refs - heuristica2  zcorte=0.75.xlsx
+++ b/objetivos_e_refs - heuristica2  zcorte=0.75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01659F-5830-40ED-96BE-1184CF0626DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769FCA81-121E-437E-89CC-E7B0C8BE9C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -586,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2318</v>
+        <v>2183</v>
       </c>
       <c r="D3">
-        <v>1693</v>
+        <v>1057</v>
       </c>
       <c r="E3">
-        <v>1693</v>
+        <v>865</v>
       </c>
       <c r="F3">
-        <v>1693</v>
+        <v>865</v>
       </c>
       <c r="I3">
         <v>1936</v>
@@ -616,16 +616,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1772</v>
+        <v>1125</v>
       </c>
       <c r="D4">
-        <v>1852</v>
+        <v>732.99999999999989</v>
       </c>
       <c r="E4">
-        <v>1945</v>
+        <v>832</v>
       </c>
       <c r="F4">
-        <v>1945</v>
+        <v>832</v>
       </c>
       <c r="I4">
         <v>1042</v>
@@ -646,16 +646,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2093</v>
+        <v>2016</v>
       </c>
       <c r="D5">
-        <v>2083</v>
+        <v>1190</v>
       </c>
       <c r="E5">
-        <v>2141</v>
+        <v>805</v>
       </c>
       <c r="F5">
-        <v>2141</v>
+        <v>805</v>
       </c>
       <c r="I5">
         <v>1586</v>
@@ -676,16 +676,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2602</v>
+        <v>2411</v>
       </c>
       <c r="D6">
-        <v>2037</v>
+        <v>1251</v>
       </c>
       <c r="E6">
-        <v>1858</v>
+        <v>814.99999999999989</v>
       </c>
       <c r="F6">
-        <v>1428</v>
+        <v>815</v>
       </c>
       <c r="I6">
         <v>2139</v>
@@ -706,16 +706,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1392</v>
+        <v>1220</v>
       </c>
       <c r="D7">
-        <v>1305</v>
+        <v>1047</v>
       </c>
       <c r="E7">
-        <v>1333</v>
+        <v>582.00000000000011</v>
       </c>
       <c r="F7">
-        <v>1333</v>
+        <v>582</v>
       </c>
       <c r="I7">
         <v>1187</v>
@@ -736,16 +736,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1885</v>
+        <v>1866</v>
       </c>
       <c r="D8">
-        <v>1387</v>
+        <v>922</v>
       </c>
       <c r="E8">
-        <v>1387</v>
+        <v>922</v>
       </c>
       <c r="F8">
-        <v>1421</v>
+        <v>922</v>
       </c>
       <c r="I8">
         <v>1521</v>
@@ -766,16 +766,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2698</v>
+        <v>2271</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>1575</v>
       </c>
       <c r="E9">
-        <v>1693</v>
+        <v>1330</v>
       </c>
       <c r="F9">
-        <v>1693</v>
+        <v>1330</v>
       </c>
       <c r="I9">
         <v>2170</v>
@@ -796,16 +796,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2074</v>
+        <v>1912</v>
       </c>
       <c r="D10">
-        <v>1529</v>
+        <v>1226</v>
       </c>
       <c r="E10">
-        <v>881.00000000000023</v>
+        <v>658</v>
       </c>
       <c r="F10">
-        <v>881</v>
+        <v>658</v>
       </c>
       <c r="I10">
         <v>1720</v>
@@ -826,16 +826,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2068</v>
+        <v>1688</v>
       </c>
       <c r="D11">
-        <v>1714</v>
+        <v>904</v>
       </c>
       <c r="E11">
-        <v>1258</v>
+        <v>581.99999999999989</v>
       </c>
       <c r="F11">
-        <v>1258</v>
+        <v>582</v>
       </c>
       <c r="I11">
         <v>1574</v>
@@ -856,16 +856,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1869</v>
+        <v>2009</v>
       </c>
       <c r="D12">
-        <v>1475</v>
+        <v>1333</v>
       </c>
       <c r="E12">
-        <v>1562</v>
+        <v>935</v>
       </c>
       <c r="F12">
-        <v>1562</v>
+        <v>935.00000000000023</v>
       </c>
       <c r="I12">
         <v>1869</v>
@@ -888,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>5187</v>
+        <v>4554</v>
       </c>
       <c r="D13">
-        <v>4850</v>
+        <v>3104</v>
       </c>
       <c r="E13">
-        <v>5271</v>
+        <v>3120</v>
       </c>
       <c r="F13">
-        <v>5271</v>
+        <v>3243</v>
       </c>
       <c r="I13">
         <v>4431</v>
@@ -918,16 +918,16 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>9002</v>
+        <v>9599</v>
       </c>
       <c r="D14">
-        <v>7186</v>
+        <v>5711</v>
       </c>
       <c r="E14">
-        <v>5524</v>
+        <v>3239</v>
       </c>
       <c r="F14">
-        <v>5524</v>
+        <v>3239</v>
       </c>
       <c r="I14">
         <v>8567</v>
@@ -948,16 +948,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>8644</v>
+        <v>6869</v>
       </c>
       <c r="D15">
-        <v>6492.9999999999991</v>
+        <v>4077</v>
       </c>
       <c r="E15">
-        <v>6818</v>
+        <v>3756</v>
       </c>
       <c r="F15">
-        <v>6817.9999999999991</v>
+        <v>3756</v>
       </c>
       <c r="I15">
         <v>6331</v>
@@ -978,16 +978,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>10363</v>
+        <v>9896</v>
       </c>
       <c r="D16">
-        <v>7452</v>
+        <v>5706</v>
       </c>
       <c r="E16">
-        <v>7037</v>
+        <v>3336</v>
       </c>
       <c r="F16">
-        <v>7037</v>
+        <v>3336</v>
       </c>
       <c r="I16">
         <v>9478</v>
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>5033</v>
+        <v>4964</v>
       </c>
       <c r="D17">
-        <v>4051</v>
+        <v>2979</v>
       </c>
       <c r="E17">
-        <v>3460</v>
+        <v>2298</v>
       </c>
       <c r="F17">
-        <v>3460</v>
+        <v>2298</v>
       </c>
       <c r="I17">
         <v>4340</v>
@@ -1038,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>7867</v>
+        <v>6622</v>
       </c>
       <c r="D18">
-        <v>5890</v>
+        <v>3898</v>
       </c>
       <c r="E18">
-        <v>6204</v>
+        <v>3304</v>
       </c>
       <c r="F18">
-        <v>6204</v>
+        <v>3304</v>
       </c>
       <c r="I18">
         <v>6766</v>
@@ -1068,16 +1068,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>13329</v>
+        <v>11939</v>
       </c>
       <c r="D19">
-        <v>9806</v>
+        <v>7304</v>
       </c>
       <c r="E19">
-        <v>8141</v>
+        <v>5656</v>
       </c>
       <c r="F19">
-        <v>8141.0000000000018</v>
+        <v>5656</v>
       </c>
       <c r="I19">
         <v>11101</v>
@@ -1098,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>4691</v>
+        <v>3994</v>
       </c>
       <c r="D20">
-        <v>4312</v>
+        <v>2201</v>
       </c>
       <c r="E20">
-        <v>4177</v>
+        <v>1638</v>
       </c>
       <c r="F20">
-        <v>4177</v>
+        <v>1638</v>
       </c>
       <c r="I20">
         <v>4203</v>
@@ -1128,16 +1128,16 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>3913</v>
+        <v>4175</v>
       </c>
       <c r="D21">
-        <v>3489</v>
+        <v>2156</v>
       </c>
       <c r="E21">
-        <v>3394</v>
+        <v>2028</v>
       </c>
       <c r="F21">
-        <v>3394</v>
+        <v>2028</v>
       </c>
       <c r="I21">
         <v>3530</v>
@@ -1158,16 +1158,16 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>5602</v>
+        <v>5919</v>
       </c>
       <c r="D22">
-        <v>4386</v>
+        <v>3299</v>
       </c>
       <c r="E22">
-        <v>4623</v>
+        <v>2116</v>
       </c>
       <c r="F22">
-        <v>4623</v>
+        <v>2116</v>
       </c>
       <c r="I22">
         <v>5545</v>
@@ -1190,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>48065</v>
+        <v>41799</v>
       </c>
       <c r="D23">
-        <v>33180</v>
+        <v>24469</v>
       </c>
       <c r="E23">
-        <v>32469</v>
+        <v>19485</v>
       </c>
       <c r="F23">
-        <v>32469</v>
+        <v>19485</v>
       </c>
       <c r="I23">
         <v>42363</v>
@@ -1220,16 +1220,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>35301</v>
+        <v>32480</v>
       </c>
       <c r="D24">
-        <v>24220</v>
+        <v>18236</v>
       </c>
       <c r="E24">
-        <v>24283</v>
+        <v>14930</v>
       </c>
       <c r="F24">
-        <v>24283</v>
+        <v>14930</v>
       </c>
       <c r="I24">
         <v>33637</v>
@@ -1250,16 +1250,16 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>43042</v>
+        <v>36812</v>
       </c>
       <c r="D25">
-        <v>35569</v>
+        <v>22049</v>
       </c>
       <c r="E25">
-        <v>36213</v>
+        <v>16749</v>
       </c>
       <c r="F25">
-        <v>36213</v>
+        <v>16749</v>
       </c>
       <c r="I25">
         <v>37641</v>
@@ -1280,16 +1280,16 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>31365</v>
+        <v>28217</v>
       </c>
       <c r="D26">
-        <v>29234</v>
+        <v>17670</v>
       </c>
       <c r="E26">
-        <v>29458</v>
+        <v>14746</v>
       </c>
       <c r="F26">
-        <v>29458</v>
+        <v>14746</v>
       </c>
       <c r="I26">
         <v>30166</v>
@@ -1310,16 +1310,16 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>35070</v>
+        <v>33797</v>
       </c>
       <c r="D27">
-        <v>29100</v>
+        <v>18481</v>
       </c>
       <c r="E27">
-        <v>28839</v>
+        <v>14621</v>
       </c>
       <c r="F27">
-        <v>28839</v>
+        <v>14621</v>
       </c>
       <c r="I27">
         <v>32604</v>
@@ -1340,16 +1340,16 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>40948</v>
+        <v>38341</v>
       </c>
       <c r="D28">
-        <v>34812</v>
+        <v>21277</v>
       </c>
       <c r="E28">
-        <v>32986</v>
+        <v>15699</v>
       </c>
       <c r="F28">
-        <v>32986</v>
+        <v>15699</v>
       </c>
       <c r="I28">
         <v>36920</v>
@@ -1370,16 +1370,16 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>48331</v>
+        <v>44916</v>
       </c>
       <c r="D29">
-        <v>39636</v>
+        <v>24032</v>
       </c>
       <c r="E29">
-        <v>36988</v>
+        <v>18352</v>
       </c>
       <c r="F29">
-        <v>36988</v>
+        <v>18352</v>
       </c>
       <c r="I29">
         <v>44277</v>
@@ -1400,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>52286</v>
+        <v>46511</v>
       </c>
       <c r="D30">
-        <v>41057.000000000007</v>
+        <v>25879</v>
       </c>
       <c r="E30">
-        <v>42873</v>
+        <v>23308</v>
       </c>
       <c r="F30">
-        <v>42873</v>
+        <v>23308</v>
       </c>
       <c r="I30">
         <v>46065</v>
@@ -1430,16 +1430,16 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>39395</v>
+        <v>37007</v>
       </c>
       <c r="D31">
-        <v>30469</v>
+        <v>21834</v>
       </c>
       <c r="E31">
-        <v>28374</v>
+        <v>15143</v>
       </c>
       <c r="F31">
-        <v>28374</v>
+        <v>15143</v>
       </c>
       <c r="I31">
         <v>36397</v>
@@ -1460,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>37229</v>
+        <v>34511</v>
       </c>
       <c r="D32">
-        <v>29878</v>
+        <v>19479</v>
       </c>
       <c r="E32">
-        <v>29757</v>
+        <v>14666</v>
       </c>
       <c r="F32">
-        <v>29757</v>
+        <v>14666</v>
       </c>
       <c r="I32">
         <v>35797</v>
@@ -1492,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>167533</v>
+        <v>152193</v>
       </c>
       <c r="D33">
-        <v>138990</v>
+        <v>88833</v>
       </c>
       <c r="E33">
-        <v>140350</v>
+        <v>74872</v>
       </c>
       <c r="F33">
-        <v>140350</v>
+        <v>74872</v>
       </c>
       <c r="I33">
         <v>156103</v>
@@ -1522,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>154888</v>
+        <v>130268</v>
       </c>
       <c r="D34">
-        <v>131796</v>
+        <v>74984</v>
       </c>
       <c r="E34">
-        <v>129384</v>
+        <v>61255</v>
       </c>
       <c r="F34">
-        <v>129384</v>
+        <v>61254.999999999993</v>
       </c>
       <c r="I34">
         <v>132605</v>
@@ -1552,16 +1552,16 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>150142</v>
+        <v>133892</v>
       </c>
       <c r="D35">
-        <v>124314</v>
+        <v>82041</v>
       </c>
       <c r="E35">
-        <v>124450</v>
+        <v>70176</v>
       </c>
       <c r="F35">
-        <v>124450</v>
+        <v>70176</v>
       </c>
       <c r="I35">
         <v>137463</v>
@@ -1582,16 +1582,16 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>156497</v>
+        <v>131762</v>
       </c>
       <c r="D36">
-        <v>133210</v>
+        <v>82433</v>
       </c>
       <c r="E36">
-        <v>129987</v>
+        <v>70631</v>
       </c>
       <c r="F36">
-        <v>129987</v>
+        <v>70631</v>
       </c>
       <c r="I36">
         <v>137265</v>
@@ -1612,16 +1612,16 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>139513</v>
+        <v>126543</v>
       </c>
       <c r="D37">
-        <v>109287</v>
+        <v>72734</v>
       </c>
       <c r="E37">
-        <v>102758</v>
+        <v>57355</v>
       </c>
       <c r="F37">
-        <v>102758</v>
+        <v>57355</v>
       </c>
       <c r="I37">
         <v>136761</v>
@@ -1642,16 +1642,16 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>161784</v>
+        <v>142273</v>
       </c>
       <c r="D38">
-        <v>144836</v>
+        <v>79966.999999999985</v>
       </c>
       <c r="E38">
-        <v>137503</v>
+        <v>68062</v>
       </c>
       <c r="F38">
-        <v>137503</v>
+        <v>68061.999999999985</v>
       </c>
       <c r="I38">
         <v>151938</v>
@@ -1672,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>155152</v>
+        <v>137673</v>
       </c>
       <c r="D39">
-        <v>123625</v>
+        <v>79302</v>
       </c>
       <c r="E39">
-        <v>116418</v>
+        <v>64600</v>
       </c>
       <c r="F39">
-        <v>116418</v>
+        <v>64600.000000000007</v>
       </c>
       <c r="I39">
         <v>141613</v>
@@ -1702,16 +1702,16 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>189930</v>
+        <v>162392</v>
       </c>
       <c r="D40">
-        <v>159800</v>
+        <v>96906</v>
       </c>
       <c r="E40">
-        <v>165604</v>
+        <v>84341</v>
       </c>
       <c r="F40">
-        <v>165604</v>
+        <v>84341</v>
       </c>
       <c r="I40">
         <v>168086</v>
@@ -1732,16 +1732,16 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>134079</v>
+        <v>118725</v>
       </c>
       <c r="D41">
-        <v>113477</v>
+        <v>70430</v>
       </c>
       <c r="E41">
-        <v>119714</v>
+        <v>61324</v>
       </c>
       <c r="F41">
-        <v>119714</v>
+        <v>61324</v>
       </c>
       <c r="I41">
         <v>125153</v>
@@ -1762,16 +1762,16 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>133196</v>
+        <v>123900</v>
       </c>
       <c r="D42">
-        <v>106149</v>
+        <v>73372</v>
       </c>
       <c r="E42">
-        <v>106440</v>
+        <v>62058</v>
       </c>
       <c r="F42">
-        <v>106440</v>
+        <v>62058</v>
       </c>
       <c r="I42">
         <v>124446</v>
@@ -1794,16 +1794,16 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>592074</v>
+        <v>504277</v>
       </c>
       <c r="D43">
-        <v>490842</v>
+        <v>299432</v>
       </c>
       <c r="E43">
-        <v>500844</v>
+        <v>260267</v>
       </c>
       <c r="F43">
-        <v>500844</v>
+        <v>260267</v>
       </c>
       <c r="I43">
         <v>526666</v>
@@ -1824,16 +1824,16 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>623703</v>
+        <v>546076</v>
       </c>
       <c r="D44">
-        <v>525713</v>
+        <v>323617</v>
       </c>
       <c r="E44">
-        <v>524721</v>
+        <v>275894</v>
       </c>
       <c r="F44">
-        <v>524721.00000000012</v>
+        <v>275894</v>
       </c>
       <c r="I44">
         <v>566643</v>
@@ -1854,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>568687</v>
+        <v>494163</v>
       </c>
       <c r="D45">
-        <v>493852</v>
+        <v>302694</v>
       </c>
       <c r="E45">
-        <v>480767</v>
+        <v>261473</v>
       </c>
       <c r="F45">
-        <v>480767</v>
+        <v>261473</v>
       </c>
       <c r="I45">
         <v>529919</v>
@@ -1884,16 +1884,16 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>683914</v>
+        <v>595654</v>
       </c>
       <c r="D46">
-        <v>588845</v>
+        <v>362855</v>
       </c>
       <c r="E46">
-        <v>572270</v>
+        <v>301121</v>
       </c>
       <c r="F46">
-        <v>572270</v>
+        <v>301121</v>
       </c>
       <c r="I46">
         <v>603709</v>
@@ -1914,16 +1914,16 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>628996</v>
+        <v>524255</v>
       </c>
       <c r="D47">
-        <v>537810</v>
+        <v>315643</v>
       </c>
       <c r="E47">
-        <v>546038</v>
+        <v>264450</v>
       </c>
       <c r="F47">
-        <v>546038</v>
+        <v>264450</v>
       </c>
       <c r="I47">
         <v>547953</v>
@@ -1944,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>547204</v>
+        <v>489015</v>
       </c>
       <c r="D48">
-        <v>451580</v>
+        <v>289291</v>
       </c>
       <c r="E48">
-        <v>461307</v>
+        <v>239732</v>
       </c>
       <c r="F48">
-        <v>461307</v>
+        <v>239732</v>
       </c>
       <c r="I48">
         <v>502276</v>
@@ -1974,16 +1974,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>521277</v>
+        <v>459313</v>
       </c>
       <c r="D49">
-        <v>448559</v>
+        <v>276658</v>
       </c>
       <c r="E49">
-        <v>462662</v>
+        <v>252961</v>
       </c>
       <c r="F49">
-        <v>462662</v>
+        <v>252961</v>
       </c>
       <c r="I49">
         <v>479651</v>
@@ -2004,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>542328</v>
+        <v>505315</v>
       </c>
       <c r="D50">
-        <v>434900</v>
+        <v>285499</v>
       </c>
       <c r="E50">
-        <v>427568</v>
+        <v>228523</v>
       </c>
       <c r="F50">
-        <v>427568</v>
+        <v>228523</v>
       </c>
       <c r="I50">
         <v>530896</v>
@@ -2034,16 +2034,16 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>612308</v>
+        <v>537460</v>
       </c>
       <c r="D51">
-        <v>510528</v>
+        <v>318795</v>
       </c>
       <c r="E51">
-        <v>500229</v>
+        <v>259290</v>
       </c>
       <c r="F51">
-        <v>500229</v>
+        <v>259290</v>
       </c>
       <c r="I51">
         <v>575353</v>
@@ -2064,16 +2064,16 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>588297</v>
+        <v>543270</v>
       </c>
       <c r="D52">
-        <v>495040</v>
+        <v>328682</v>
       </c>
       <c r="E52">
-        <v>468306</v>
+        <v>281958</v>
       </c>
       <c r="F52">
-        <v>468306</v>
+        <v>281958</v>
       </c>
       <c r="I52">
         <v>572866</v>
@@ -2096,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>3318815</v>
+        <v>2994619</v>
       </c>
       <c r="D53">
-        <v>2923091</v>
+        <v>1842600</v>
       </c>
       <c r="E53">
-        <v>3006805</v>
+        <v>1594367</v>
       </c>
       <c r="F53">
-        <v>3006805</v>
+        <v>1594367</v>
       </c>
       <c r="I53">
         <v>3113088</v>
@@ -2126,16 +2126,16 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>3951776</v>
+        <v>3407621</v>
       </c>
       <c r="D54">
-        <v>3301975</v>
+        <v>2041684</v>
       </c>
       <c r="E54">
-        <v>3371623</v>
+        <v>1736494</v>
       </c>
       <c r="F54">
-        <v>3371623</v>
+        <v>1736494</v>
       </c>
       <c r="I54">
         <v>3569058</v>
@@ -2156,16 +2156,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>3641499</v>
+        <v>3135584</v>
       </c>
       <c r="D55">
-        <v>3109130</v>
+        <v>1900438</v>
       </c>
       <c r="E55">
-        <v>3224681</v>
+        <v>1652412</v>
       </c>
       <c r="F55">
-        <v>3224681</v>
+        <v>1652412</v>
       </c>
       <c r="I55">
         <v>3300744</v>
@@ -2186,16 +2186,16 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>3825374</v>
+        <v>3275912</v>
       </c>
       <c r="D56">
-        <v>3276427</v>
+        <v>1922500</v>
       </c>
       <c r="E56">
-        <v>3358880</v>
+        <v>1663977</v>
       </c>
       <c r="F56">
-        <v>3358880</v>
+        <v>1663977</v>
       </c>
       <c r="I56">
         <v>3408867</v>
@@ -2216,16 +2216,16 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>3540670</v>
+        <v>3170229</v>
       </c>
       <c r="D57">
-        <v>2932020</v>
+        <v>1843486</v>
       </c>
       <c r="E57">
-        <v>2912942</v>
+        <v>1482771</v>
       </c>
       <c r="F57">
-        <v>2912942</v>
+        <v>1482771</v>
       </c>
       <c r="I57">
         <v>3377547</v>
@@ -2246,16 +2246,16 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3252697</v>
+        <v>2863686</v>
       </c>
       <c r="D58">
-        <v>2745245</v>
+        <v>1638247</v>
       </c>
       <c r="E58">
-        <v>2800083</v>
+        <v>1429086</v>
       </c>
       <c r="F58">
-        <v>2800083</v>
+        <v>1429086</v>
       </c>
       <c r="I58">
         <v>3024082</v>
@@ -2276,16 +2276,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>3724155</v>
+        <v>3207834</v>
       </c>
       <c r="D59">
-        <v>3213309</v>
+        <v>1954029</v>
       </c>
       <c r="E59">
-        <v>3246925</v>
+        <v>1647469</v>
       </c>
       <c r="F59">
-        <v>3246925</v>
+        <v>1647469</v>
       </c>
       <c r="I59">
         <v>3381166</v>
@@ -2306,16 +2306,16 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>3603173</v>
+        <v>3187105</v>
       </c>
       <c r="D60">
-        <v>3075603</v>
+        <v>1838925</v>
       </c>
       <c r="E60">
-        <v>3075674</v>
+        <v>1579831</v>
       </c>
       <c r="F60">
-        <v>3075674</v>
+        <v>1579831</v>
       </c>
       <c r="I60">
         <v>3376678</v>
@@ -2336,16 +2336,16 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>3918945</v>
+        <v>3439690</v>
       </c>
       <c r="D61">
-        <v>3286327</v>
+        <v>2008340</v>
       </c>
       <c r="E61">
-        <v>3332217</v>
+        <v>1703155</v>
       </c>
       <c r="F61">
-        <v>3332217</v>
+        <v>1703155</v>
       </c>
       <c r="I61">
         <v>3617807</v>
@@ -2366,16 +2366,16 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>3562773</v>
+        <v>3162204</v>
       </c>
       <c r="D62">
-        <v>3033580</v>
+        <v>1886943</v>
       </c>
       <c r="E62">
-        <v>3035345</v>
+        <v>1528503</v>
       </c>
       <c r="F62">
-        <v>3035345</v>
+        <v>1528503</v>
       </c>
       <c r="I62">
         <v>3315019</v>
@@ -2398,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>15811333</v>
+        <v>14271401</v>
       </c>
       <c r="D63">
-        <v>12751595</v>
+        <v>8269334</v>
       </c>
       <c r="E63">
-        <v>12547452</v>
+        <v>6544242</v>
       </c>
       <c r="F63">
-        <v>12547452</v>
+        <v>6544242</v>
       </c>
       <c r="I63">
         <v>15190371</v>
@@ -2428,16 +2428,16 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>14291426</v>
+        <v>12470883</v>
       </c>
       <c r="D64">
-        <v>12027339</v>
+        <v>7410417</v>
       </c>
       <c r="E64">
-        <v>12041314</v>
+        <v>6193851</v>
       </c>
       <c r="F64">
-        <v>12041314</v>
+        <v>6193851</v>
       </c>
       <c r="I64">
         <v>13356727</v>
@@ -2458,16 +2458,16 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>13516502</v>
+        <v>12179181</v>
       </c>
       <c r="D65">
-        <v>11715532</v>
+        <v>7145720</v>
       </c>
       <c r="E65">
-        <v>11889171</v>
+        <v>6023847</v>
       </c>
       <c r="F65">
-        <v>11889171</v>
+        <v>6023847</v>
       </c>
       <c r="I65">
         <v>12919259</v>
@@ -2488,16 +2488,16 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>14111706</v>
+        <v>11969014</v>
       </c>
       <c r="D66">
-        <v>12137432</v>
+        <v>7176960</v>
       </c>
       <c r="E66">
-        <v>12180604</v>
+        <v>6163052</v>
       </c>
       <c r="F66">
-        <v>12180604</v>
+        <v>6163052</v>
       </c>
       <c r="I66">
         <v>12705290</v>
@@ -2518,16 +2518,16 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>14265819</v>
+        <v>12580745</v>
       </c>
       <c r="D67">
-        <v>12168787</v>
+        <v>7554310</v>
       </c>
       <c r="E67">
-        <v>12412934</v>
+        <v>6391031</v>
       </c>
       <c r="F67">
-        <v>12412934</v>
+        <v>6391031</v>
       </c>
       <c r="I67">
         <v>13276868</v>
@@ -2548,16 +2548,16 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>13761889</v>
+        <v>11816169</v>
       </c>
       <c r="D68">
-        <v>11977522</v>
+        <v>7041618</v>
       </c>
       <c r="E68">
-        <v>12285009</v>
+        <v>6131333</v>
       </c>
       <c r="F68">
-        <v>12285009</v>
+        <v>6131333</v>
       </c>
       <c r="I68">
         <v>12236080</v>
@@ -2578,16 +2578,16 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>15310092</v>
+        <v>13442209</v>
       </c>
       <c r="D69">
-        <v>12822068</v>
+        <v>7991558</v>
       </c>
       <c r="E69">
-        <v>12775929</v>
+        <v>6702687</v>
       </c>
       <c r="F69">
-        <v>12775929</v>
+        <v>6702687</v>
       </c>
       <c r="I69">
         <v>14160773</v>
@@ -2608,16 +2608,16 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>14002132</v>
+        <v>12424361</v>
       </c>
       <c r="D70">
-        <v>11718997</v>
+        <v>7362202</v>
       </c>
       <c r="E70">
-        <v>11907259</v>
+        <v>6155255</v>
       </c>
       <c r="F70">
-        <v>11907259</v>
+        <v>6155255</v>
       </c>
       <c r="I70">
         <v>13314723</v>
@@ -2638,16 +2638,16 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>13714457</v>
+        <v>11906543</v>
       </c>
       <c r="D71">
-        <v>11818581</v>
+        <v>7176270</v>
       </c>
       <c r="E71">
-        <v>11854407</v>
+        <v>6245123</v>
       </c>
       <c r="F71">
-        <v>11854407</v>
+        <v>6245123</v>
       </c>
       <c r="I71">
         <v>12433821</v>
@@ -2668,16 +2668,16 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>14378730</v>
+        <v>12593614</v>
       </c>
       <c r="D72">
-        <v>12202848</v>
+        <v>7427509</v>
       </c>
       <c r="E72">
-        <v>12228966</v>
+        <v>6212090</v>
       </c>
       <c r="F72">
-        <v>12228966</v>
+        <v>6212090</v>
       </c>
       <c r="I72">
         <v>13395234</v>
